--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -30,8 +32,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">    ● 
-    ● a  </t>
+      <t xml:space="preserve">    ● a 
+    ●a 
+    ●a 
+    ●a 
+    ●a 
+    ●a a 
+    ●a a 
+    ●a a 
+    ●a 
+    ●a 
+    ●a  </t>
     </r>
   </si>
 </sst>
@@ -481,7 +492,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="6.71428571428571" customWidth="1"/>
+    <col min="1" max="2" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
@@ -492,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="12.75">
+    <row r="2" spans="1:2" ht="140.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,6 +512,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -495,7 +495,7 @@
     <col min="1" max="2" width="9.71428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
+    <row r="1" spans="1:2" ht="13" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -33,16 +33,16 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">    ● a 
-    ●a 
-    ●a 
-    ●a 
-    ●a 
-    ●a a 
-    ●a a 
-    ●a a 
-    ●a 
-    ●a 
-    ●a  </t>
+    ● a 
+    ● a 
+    ● a 
+    ● a 
+    ● a a 
+    ● a a 
+    ● a a 
+    ● a 
+    ● a 
+    ● a</t>
     </r>
   </si>
 </sst>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="140.25">
+    <row r="2" spans="1:2" ht="140" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -86,16 +86,13 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -492,10 +489,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="9.71428571428571" customWidth="1"/>
+    <col min="1" max="2" width="10.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" customHeight="1">
+    <row r="1" spans="1:2" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,11 +500,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="140" customHeight="1">
+    <row r="2" spans="1:2" ht="141" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -489,7 +489,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="10.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -25,25 +25,19 @@
     <t>Value2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    ● a 
-    ● a 
-    ● a 
-    ● a 
-    ● a 
-    ● a a 
-    ● a a 
-    ● a a 
-    ● a 
-    ● a 
-    ● a</t>
-    </r>
+    <t>● a
+● a
+● a
+● a
+● a
+● a
+a
+● a_x000d_a
+● a_x000d_
+a
+● a
+● a
+● a</t>
   </si>
 </sst>
 </file>
@@ -86,13 +80,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -501,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="141" customHeight="1">
+    <row r="2" spans="1:2" ht="167" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>

--- a/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/EnumerableStringTests.WithNewlines.verified.xlsx
@@ -481,7 +481,7 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="20.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" customHeight="1">
